--- a/datamanagement-service/src/test/resources/out/Raum_und_Zeitplanung.xlsx
+++ b/datamanagement-service/src/test/resources/out/Raum_und_Zeitplanung.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="57">
   <si>
     <t>8:45 - 9:30
 A</t>
@@ -35,22 +35,160 @@
 E</t>
   </si>
   <si>
-    <t>Company1</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>Company2ThisWillBeALongCompanyName</t>
-  </si>
-  <si>
-    <t>Company3</t>
+    <t>Zentis</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Babor Kosmetik</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>EVA (Stawag, RegioIt, Aseag..)</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Grünenthal</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>RWTH Aachen</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Aldi</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Bauhaus</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Sparkasse Aachen</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Aachener Bank</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>Debeka</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Steuerberaterkammer Köln</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Rechtsanwaltberufe</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Notarberufe</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Spedition Hammer</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Inform</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>StädteRegion Aachen</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>Finanzamt</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>Justizvollzugsanstalt</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>Zoll Aachen</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Polizei</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>FH Aachen - Studienberatung</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>RWTH Aachen - Studienberatung</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Wirtschaftsrecht FH-Aachen</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>Soziale Arbeit</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>Lehramt Berufskolleg</t>
+  </si>
+  <si>
+    <t>126</t>
   </si>
 </sst>
 </file>
@@ -58,22 +196,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.00"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11.00"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="b3daff"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -81,19 +230,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -112,7 +271,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="35.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="15.0" outlineLevel="0" customWidth="true" bestFit="false"/>
     <col min="4" max="4" width="15.0" outlineLevel="0" customWidth="true" bestFit="false"/>
     <col min="5" max="5" width="15.0" outlineLevel="0" customWidth="true" bestFit="false"/>
@@ -123,94 +282,645 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" useFirstPageNumber="false" blackAndWhite="false" orientation="portrait"/>
   <headerFooter differentFirst="false" differentOddEven="false">
